--- a/biology/Zoologie/Émeraude_splendide/Émeraude_splendide.xlsx
+++ b/biology/Zoologie/Émeraude_splendide/Émeraude_splendide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_splendide</t>
+          <t>Émeraude_splendide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostilbon lucidus
 L'Émeraude splendide (Chlorostilbon lucidus, anciennement Chlorostilbon aureoventris) est une espèce de colibris (famille des Trochilidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meraude_splendide</t>
+          <t>Émeraude_splendide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Argentine, en Bolivie, au Brésil, au Paraguay et en Uruguay.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meraude_splendide</t>
+          <t>Émeraude_splendide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts subtropicales humides de basse altitude et de montagne, les zones subtropicales de broussailles humides mais aussi les forêts subtropicales lourdement dégradées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meraude_splendide</t>
+          <t>Émeraude_splendide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce avait pour nom scientifique Chlorostilbon aureoventris (d'Orbigny &amp; Lafresnaye, 1838), mais Pacheco &amp; Whitney (2006) ont démontré[1] que la paternité de la description de l'espèce revenait à George Kearsley Shaw (1812), et que l'espèce devait donc être renommée en Chlorostilbon lucidus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce avait pour nom scientifique Chlorostilbon aureoventris (d'Orbigny &amp; Lafresnaye, 1838), mais Pacheco &amp; Whitney (2006) ont démontré que la paternité de la description de l'espèce revenait à George Kearsley Shaw (1812), et que l'espèce devait donc être renommée en Chlorostilbon lucidus.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meraude_splendide</t>
+          <t>Émeraude_splendide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Chlorostilbon lucidus berlepschi Pinto, 1938 ;
